--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2741930.62380529</v>
+        <v>2739433.457628425</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767341</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8594697.069274627</v>
+        <v>8594697.069274625</v>
       </c>
     </row>
     <row r="11">
@@ -1370,19 +1370,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.7236160152328</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1427,13 +1427,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>196.8486114728756</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1546,7 +1546,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1607,16 +1607,16 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>275.9723987444507</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
@@ -1673,7 +1673,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>333.2812473867511</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1783,7 +1783,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>236.5013105534205</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C17" t="n">
         <v>271.3226185338224</v>
@@ -1850,13 +1850,13 @@
         <v>260.7327683834978</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F17" t="n">
         <v>312.9257725045263</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9714524162683</v>
+        <v>264.6891945433895</v>
       </c>
       <c r="H17" t="n">
         <v>200.6574911501353</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099068</v>
+        <v>15.23748855099073</v>
       </c>
       <c r="T17" t="n">
-        <v>109.967696902435</v>
+        <v>109.9676969024351</v>
       </c>
       <c r="U17" t="n">
-        <v>157.0448987217168</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V17" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W17" t="n">
-        <v>255.2906954802278</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X17" t="n">
         <v>275.7808274412839</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.88170694475212</v>
+        <v>85.88170694475218</v>
       </c>
       <c r="C19" t="n">
-        <v>73.29654786144266</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>54.66519978102718</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E19" t="n">
-        <v>52.483689409384</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F19" t="n">
-        <v>51.47077478574607</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G19" t="n">
-        <v>74.53585620438538</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H19" t="n">
-        <v>50.80474167713561</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172652938</v>
+        <v>2.402147172652995</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>98.27907327679885</v>
       </c>
       <c r="T19" t="n">
-        <v>125.598676038984</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>131.759382151852</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.6343801149096</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7835684262954</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C20" t="n">
         <v>271.3226185338224</v>
       </c>
       <c r="D20" t="n">
-        <v>208.4505105106212</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F20" t="n">
         <v>312.9257725045263</v>
@@ -2096,7 +2096,7 @@
         <v>316.9714524162683</v>
       </c>
       <c r="H20" t="n">
-        <v>200.6574911501353</v>
+        <v>148.3752332772561</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.23748855099066</v>
+        <v>15.23748855099076</v>
       </c>
       <c r="T20" t="n">
-        <v>109.967696902435</v>
+        <v>109.9676969024351</v>
       </c>
       <c r="U20" t="n">
-        <v>157.0448987217168</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V20" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W20" t="n">
-        <v>255.2906954802278</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X20" t="n">
         <v>275.7808274412839</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.88170694475212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>73.29654786144266</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D22" t="n">
-        <v>54.66519978102718</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E22" t="n">
-        <v>52.483689409384</v>
+        <v>52.48368940938406</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I22" t="n">
-        <v>4.862468355195993</v>
+        <v>2.402147172653002</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.81875209425672</v>
+        <v>95.81875209425679</v>
       </c>
       <c r="T22" t="n">
-        <v>125.598676038984</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>192.2615649684277</v>
       </c>
       <c r="V22" t="n">
-        <v>158.1873700866428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>192.5727250994058</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.6343801149096</v>
+        <v>127.0947012974508</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>316.9714524162683</v>
       </c>
       <c r="H23" t="n">
-        <v>200.6574911501353</v>
+        <v>158.932374993246</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>15.23748855099072</v>
       </c>
       <c r="T23" t="n">
         <v>109.967696902435</v>
       </c>
       <c r="U23" t="n">
-        <v>130.5572711158181</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V23" t="n">
         <v>233.8019852329498</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.8817069447522</v>
+        <v>93.36014869443257</v>
       </c>
       <c r="C25" t="n">
-        <v>73.29654786144273</v>
+        <v>73.29654786144272</v>
       </c>
       <c r="D25" t="n">
-        <v>54.66519978102725</v>
+        <v>54.66519978102724</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>51.47077478574614</v>
+        <v>51.47077478574613</v>
       </c>
       <c r="G25" t="n">
-        <v>72.07553502184312</v>
+        <v>72.07553502184311</v>
       </c>
       <c r="H25" t="n">
-        <v>50.80474167713568</v>
+        <v>50.80474167713567</v>
       </c>
       <c r="I25" t="n">
-        <v>9.880588922333615</v>
+        <v>2.402147172652981</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>95.81875209425678</v>
       </c>
       <c r="T25" t="n">
-        <v>125.5986760389841</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V25" t="n">
         <v>158.1873700866429</v>
       </c>
       <c r="W25" t="n">
-        <v>192.5727250994059</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>131.759382151852</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
-        <v>4.57558706527705</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>223.277106033891</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247741</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2798,16 +2798,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>247.1574214400723</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>4.575587065275699</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247741</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -3035,7 +3035,7 @@
         <v>257.75240294372</v>
       </c>
       <c r="E32" t="n">
-        <v>284.9997313952988</v>
+        <v>284.9997313952989</v>
       </c>
       <c r="F32" t="n">
         <v>309.9454070647485</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.25712311121283</v>
+        <v>12.25712311121292</v>
       </c>
       <c r="T32" t="n">
         <v>106.9873314626572</v>
       </c>
       <c r="U32" t="n">
-        <v>154.064533281939</v>
+        <v>154.0645332819391</v>
       </c>
       <c r="V32" t="n">
-        <v>230.8216197931719</v>
+        <v>230.821619793172</v>
       </c>
       <c r="W32" t="n">
-        <v>252.31033004045</v>
+        <v>252.3103300404501</v>
       </c>
       <c r="X32" t="n">
-        <v>272.800462001506</v>
+        <v>272.8004620015061</v>
       </c>
       <c r="Y32" t="n">
-        <v>289.3072999790906</v>
+        <v>289.3072999790907</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247741</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.9013415049743</v>
+        <v>82.90134150497438</v>
       </c>
       <c r="C34" t="n">
-        <v>70.31618242166483</v>
+        <v>70.31618242166492</v>
       </c>
       <c r="D34" t="n">
-        <v>86.35095709422357</v>
+        <v>51.68483434124944</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>49.50332396960626</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>48.49040934596833</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>69.09516958206531</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>47.82437623735787</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.8383866544789</v>
+        <v>92.83838665447898</v>
       </c>
       <c r="T34" t="n">
-        <v>122.6183105992062</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>189.2811995286499</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>155.207004646865</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>189.592359659628</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7790167120742</v>
+        <v>163.4451394650477</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.6540146751318</v>
+        <v>121.6540146751319</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
         <v>256.9983213925781</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307971</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383239</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010745</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>90.95618068285791</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482634</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092332</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621587</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333699</v>
+        <v>134.2912433677303</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
         <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253477</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383239</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052293</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010738</v>
+        <v>93.13769105450083</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846426</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482634</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092332</v>
       </c>
       <c r="H40" t="n">
-        <v>90.60953276887666</v>
+        <v>47.07029468621587</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333692</v>
+        <v>92.08430510333699</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007087</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,13 +3797,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383233</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F43" t="n">
-        <v>89.94326605922033</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.20693826439368</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3983,10 +3983,10 @@
         <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441563</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307979</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383233</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052287</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>134.2912433677308</v>
+        <v>143.0438109257884</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
         <v>188.5271179775079</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1386.143792573978</v>
+        <v>1627.383644777219</v>
       </c>
       <c r="C11" t="n">
-        <v>1386.143792573978</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>995.0546951262033</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923808</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822733</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084341</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638546</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2699.318846352812</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2393.999824030771</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2067.983698717765</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="Y11" t="n">
-        <v>1725.293999690027</v>
+        <v>1966.533851893267</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052938</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254601</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611977</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268784</v>
+        <v>434.849232726878</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770411</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998334</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657645</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315259</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337116</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5227,7 +5227,7 @@
         <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
         <v>1696.750338179562</v>
@@ -5239,10 +5239,10 @@
         <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232656</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>684.268901082273</v>
       </c>
       <c r="F14" t="n">
         <v>684.268901082273</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5297,31 +5297,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609172</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609172</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609172</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>3020.286799287132</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2694.270673974124</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341042</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5419,28 +5419,28 @@
         <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268786</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
         <v>335.4089181770415</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657649</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315258</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5455,10 +5455,10 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
         <v>2112.720554588247</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1733.774944536554</v>
+        <v>1680.964583048799</v>
       </c>
       <c r="C17" t="n">
-        <v>1459.711693492289</v>
+        <v>1406.901332004534</v>
       </c>
       <c r="D17" t="n">
-        <v>1196.345260781685</v>
+        <v>1143.53489929393</v>
       </c>
       <c r="E17" t="n">
-        <v>905.4562740795873</v>
+        <v>852.6459125918319</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3696351861264</v>
+        <v>536.5592736983709</v>
       </c>
       <c r="G17" t="n">
         <v>269.1964509272696</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.214419032414</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T17" t="n">
-        <v>3199.135937312783</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U17" t="n">
-        <v>3040.504726482766</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V17" t="n">
-        <v>2804.341105035342</v>
+        <v>2804.34110503534</v>
       </c>
       <c r="W17" t="n">
-        <v>2546.471715661375</v>
+        <v>2546.471715661372</v>
       </c>
       <c r="X17" t="n">
-        <v>2267.905223296442</v>
+        <v>2267.905223296439</v>
       </c>
       <c r="Y17" t="n">
-        <v>1972.665157216777</v>
+        <v>1972.665157216774</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,34 +5610,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>429.8039920804399</v>
+        <v>522.2180850649279</v>
       </c>
       <c r="C19" t="n">
-        <v>355.7670750486796</v>
+        <v>353.281902137021</v>
       </c>
       <c r="D19" t="n">
-        <v>300.5497015324905</v>
+        <v>298.0645286208319</v>
       </c>
       <c r="E19" t="n">
-        <v>247.5358738462441</v>
+        <v>245.0507009345853</v>
       </c>
       <c r="F19" t="n">
-        <v>195.5451922444803</v>
+        <v>193.0600193328216</v>
       </c>
       <c r="G19" t="n">
-        <v>120.256448603687</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H19" t="n">
-        <v>68.93852771769147</v>
+        <v>68.9385277176915</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
@@ -5698,25 +5698,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1828.022756899807</v>
       </c>
       <c r="T19" t="n">
-        <v>1608.741314380991</v>
+        <v>1701.155407365479</v>
       </c>
       <c r="U19" t="n">
-        <v>1319.638447506635</v>
+        <v>1412.052540491123</v>
       </c>
       <c r="V19" t="n">
-        <v>1064.953959300748</v>
+        <v>1252.267318181383</v>
       </c>
       <c r="W19" t="n">
-        <v>775.5367892637871</v>
+        <v>962.8501481444218</v>
       </c>
       <c r="X19" t="n">
-        <v>642.4465042619164</v>
+        <v>829.7598631425511</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5531910145329</v>
+        <v>608.967283999021</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1680.9645830488</v>
+        <v>1680.964583048798</v>
       </c>
       <c r="C20" t="n">
-        <v>1406.901332004535</v>
+        <v>1406.901332004533</v>
       </c>
       <c r="D20" t="n">
-        <v>1196.345260781685</v>
+        <v>1143.534899293929</v>
       </c>
       <c r="E20" t="n">
-        <v>905.4562740795875</v>
+        <v>852.6459125918313</v>
       </c>
       <c r="F20" t="n">
-        <v>589.3696351861266</v>
+        <v>536.5592736983704</v>
       </c>
       <c r="G20" t="n">
-        <v>269.1964509272696</v>
+        <v>216.3860894395128</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5765,37 +5765,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.214419032413</v>
+        <v>3310.214419032411</v>
       </c>
       <c r="T20" t="n">
-        <v>3199.135937312782</v>
+        <v>3199.13593731278</v>
       </c>
       <c r="U20" t="n">
-        <v>3040.504726482764</v>
+        <v>3040.504726482763</v>
       </c>
       <c r="V20" t="n">
-        <v>2804.341105035341</v>
+        <v>2804.341105035339</v>
       </c>
       <c r="W20" t="n">
-        <v>2546.471715661373</v>
+        <v>2546.471715661371</v>
       </c>
       <c r="X20" t="n">
-        <v>2267.90522329644</v>
+        <v>2267.905223296438</v>
       </c>
       <c r="Y20" t="n">
-        <v>1972.665157216775</v>
+        <v>1972.665157216773</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228006</v>
@@ -5835,7 +5835,7 @@
         <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5844,37 +5844,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.5017897688806</v>
+        <v>427.3188191687813</v>
       </c>
       <c r="C22" t="n">
-        <v>640.4648727371203</v>
+        <v>353.281902137021</v>
       </c>
       <c r="D22" t="n">
-        <v>585.2474992209312</v>
+        <v>298.0645286208319</v>
       </c>
       <c r="E22" t="n">
-        <v>532.2336715346847</v>
+        <v>245.0507009345853</v>
       </c>
       <c r="F22" t="n">
-        <v>385.3437240367743</v>
+        <v>193.0600193328216</v>
       </c>
       <c r="G22" t="n">
-        <v>217.6408874114933</v>
+        <v>120.2564486036871</v>
       </c>
       <c r="H22" t="n">
-        <v>71.42370062935109</v>
+        <v>68.93852771769147</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1830.507929811466</v>
+        <v>1830.507929811464</v>
       </c>
       <c r="T22" t="n">
-        <v>1703.640580277138</v>
+        <v>1608.74131438099</v>
       </c>
       <c r="U22" t="n">
-        <v>1509.436979298929</v>
+        <v>1414.537713402781</v>
       </c>
       <c r="V22" t="n">
-        <v>1349.651756989188</v>
+        <v>1159.853225196894</v>
       </c>
       <c r="W22" t="n">
-        <v>1155.133852848375</v>
+        <v>870.4360551599329</v>
       </c>
       <c r="X22" t="n">
-        <v>927.1443019503572</v>
+        <v>737.3457701580622</v>
       </c>
       <c r="Y22" t="n">
-        <v>801.2509887029737</v>
+        <v>608.967283999021</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1733.992572689842</v>
+        <v>1691.845990713186</v>
       </c>
       <c r="C23" t="n">
-        <v>1459.929321645577</v>
+        <v>1417.782739668921</v>
       </c>
       <c r="D23" t="n">
-        <v>1196.562888934973</v>
+        <v>1154.416306958317</v>
       </c>
       <c r="E23" t="n">
-        <v>905.6739022328752</v>
+        <v>863.5273202562198</v>
       </c>
       <c r="F23" t="n">
-        <v>589.5872633394142</v>
+        <v>547.4406813627588</v>
       </c>
       <c r="G23" t="n">
-        <v>269.4140790805574</v>
+        <v>227.2674971039015</v>
       </c>
       <c r="H23" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="I23" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="J23" t="n">
-        <v>255.6088755444967</v>
+        <v>255.6088755444966</v>
       </c>
       <c r="K23" t="n">
-        <v>589.4282492343433</v>
+        <v>589.4282492343431</v>
       </c>
       <c r="L23" t="n">
         <v>1040.462462482752</v>
@@ -6002,37 +6002,37 @@
         <v>2120.773184213459</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.745655092796</v>
+        <v>2634.409434603895</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.520021449975</v>
+        <v>3029.183800961073</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.806383205657</v>
+        <v>3277.470162716755</v>
       </c>
       <c r="R23" t="n">
-        <v>3336.487229273557</v>
+        <v>3336.487229273558</v>
       </c>
       <c r="S23" t="n">
-        <v>3336.487229273557</v>
+        <v>3321.0958266968</v>
       </c>
       <c r="T23" t="n">
-        <v>3225.408747553926</v>
+        <v>3210.017344977168</v>
       </c>
       <c r="U23" t="n">
-        <v>3093.532716123807</v>
+        <v>3051.386134147152</v>
       </c>
       <c r="V23" t="n">
-        <v>2857.369094676383</v>
+        <v>2815.222512699727</v>
       </c>
       <c r="W23" t="n">
-        <v>2599.499705302415</v>
+        <v>2557.35312332576</v>
       </c>
       <c r="X23" t="n">
-        <v>2320.933212937482</v>
+        <v>2278.786630960827</v>
       </c>
       <c r="Y23" t="n">
-        <v>2025.693146857817</v>
+        <v>1983.546564881161</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.7614826343965</v>
+        <v>941.7614826343964</v>
       </c>
       <c r="C24" t="n">
-        <v>767.3084533532696</v>
+        <v>767.3084533532694</v>
       </c>
       <c r="D24" t="n">
-        <v>618.3740436920184</v>
+        <v>618.3740436920182</v>
       </c>
       <c r="E24" t="n">
-        <v>459.1365886865628</v>
+        <v>459.1365886865626</v>
       </c>
       <c r="F24" t="n">
-        <v>312.6020307134479</v>
+        <v>312.6020307134476</v>
       </c>
       <c r="G24" t="n">
-        <v>176.2389305460662</v>
+        <v>176.2389305460657</v>
       </c>
       <c r="H24" t="n">
-        <v>85.73703618393358</v>
+        <v>85.73703618393318</v>
       </c>
       <c r="I24" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="J24" t="n">
-        <v>160.4070140760883</v>
+        <v>160.4070140760885</v>
       </c>
       <c r="K24" t="n">
-        <v>398.6712130564357</v>
+        <v>398.6712130564356</v>
       </c>
       <c r="L24" t="n">
-        <v>765.3693733691008</v>
+        <v>765.369373369101</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.645698591416</v>
+        <v>1212.645698591417</v>
       </c>
       <c r="N24" t="n">
         <v>1686.168742145871</v>
@@ -6090,16 +6090,16 @@
         <v>2565.271170686629</v>
       </c>
       <c r="R24" t="n">
-        <v>2565.126817279145</v>
+        <v>2565.126817279144</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.688930772625</v>
+        <v>2435.688930772624</v>
       </c>
       <c r="T24" t="n">
         <v>2243.04593045048</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.978083584896</v>
+        <v>2014.978083584895</v>
       </c>
       <c r="V24" t="n">
         <v>1779.825975353153</v>
@@ -6111,7 +6111,7 @@
         <v>1317.737118419418</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.976819654465</v>
+        <v>1109.976819654464</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>529.9896947835497</v>
+        <v>522.4357132182157</v>
       </c>
       <c r="C25" t="n">
-        <v>455.9527777517893</v>
+        <v>448.3987961864553</v>
       </c>
       <c r="D25" t="n">
-        <v>400.7354042356002</v>
+        <v>393.1814226702662</v>
       </c>
       <c r="E25" t="n">
-        <v>252.8223106532071</v>
+        <v>245.2683290878731</v>
       </c>
       <c r="F25" t="n">
-        <v>200.8316290514433</v>
+        <v>193.2776474861093</v>
       </c>
       <c r="G25" t="n">
-        <v>128.0280583223088</v>
+        <v>120.4740767569749</v>
       </c>
       <c r="H25" t="n">
-        <v>76.71013743631318</v>
+        <v>69.15615587097922</v>
       </c>
       <c r="I25" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="J25" t="n">
         <v>111.8523770324067</v>
       </c>
       <c r="K25" t="n">
-        <v>315.8395599812832</v>
+        <v>315.8395599812831</v>
       </c>
       <c r="L25" t="n">
-        <v>632.3993584297793</v>
+        <v>632.3993584297791</v>
       </c>
       <c r="M25" t="n">
-        <v>976.5564040293284</v>
+        <v>976.5564040293282</v>
       </c>
       <c r="N25" t="n">
         <v>1317.964780735193</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.294379655607</v>
+        <v>1617.294379655606</v>
       </c>
       <c r="P25" t="n">
         <v>1849.901880089266</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.512176241781</v>
+        <v>1927.51217624178</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.681718999309</v>
+        <v>1837.681718999308</v>
       </c>
       <c r="S25" t="n">
-        <v>1740.895100722282</v>
+        <v>1740.895100722281</v>
       </c>
       <c r="T25" t="n">
-        <v>1614.027751187954</v>
+        <v>1519.128485291807</v>
       </c>
       <c r="U25" t="n">
         <v>1324.924884313598</v>
       </c>
       <c r="V25" t="n">
-        <v>1165.139662003858</v>
+        <v>1165.139662003857</v>
       </c>
       <c r="W25" t="n">
-        <v>970.6217578630436</v>
+        <v>875.7224919668968</v>
       </c>
       <c r="X25" t="n">
-        <v>837.5314728611729</v>
+        <v>742.6322069650261</v>
       </c>
       <c r="Y25" t="n">
-        <v>616.7388937176428</v>
+        <v>616.7388937176426</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2018.690370378282</v>
+        <v>1768.556402935123</v>
       </c>
       <c r="C26" t="n">
-        <v>1697.177486385943</v>
+        <v>1447.043518942784</v>
       </c>
       <c r="D26" t="n">
-        <v>1386.361420727266</v>
+        <v>1136.227453284107</v>
       </c>
       <c r="E26" t="n">
-        <v>1048.022801077095</v>
+        <v>797.8888336339357</v>
       </c>
       <c r="F26" t="n">
-        <v>684.4865292355611</v>
+        <v>434.3525617924014</v>
       </c>
       <c r="G26" t="n">
-        <v>316.8637120286306</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="H26" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="I26" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="J26" t="n">
         <v>255.6088755444966</v>
@@ -6245,31 +6245,31 @@
         <v>3018.520021449974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.806383205656</v>
+        <v>3277.470162716755</v>
       </c>
       <c r="R26" t="n">
-        <v>3336.487229273557</v>
+        <v>3336.487229273558</v>
       </c>
       <c r="S26" t="n">
-        <v>3336.487229273557</v>
+        <v>3273.646193748726</v>
       </c>
       <c r="T26" t="n">
-        <v>3331.865424157116</v>
+        <v>3115.118079081021</v>
       </c>
       <c r="U26" t="n">
-        <v>3331.865424157116</v>
+        <v>2909.037235302931</v>
       </c>
       <c r="V26" t="n">
-        <v>3331.865424157116</v>
+        <v>2625.423980907434</v>
       </c>
       <c r="W26" t="n">
-        <v>3026.546401835075</v>
+        <v>2320.104958585393</v>
       </c>
       <c r="X26" t="n">
-        <v>2700.530276522069</v>
+        <v>1994.088833272386</v>
       </c>
       <c r="Y26" t="n">
-        <v>2357.84057749433</v>
+        <v>1768.556402935123</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C27" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D27" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E27" t="n">
         <v>459.1365886865626</v>
@@ -6300,7 +6300,7 @@
         <v>85.73703618393318</v>
       </c>
       <c r="I27" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="J27" t="n">
         <v>160.4070140760885</v>
@@ -6309,7 +6309,7 @@
         <v>398.6712130564356</v>
       </c>
       <c r="L27" t="n">
-        <v>765.3693733691009</v>
+        <v>765.369373369101</v>
       </c>
       <c r="M27" t="n">
         <v>1212.645698591417</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.683877958582</v>
+        <v>759.6838779585822</v>
       </c>
       <c r="C28" t="n">
-        <v>638.1973279787484</v>
+        <v>638.1973279787486</v>
       </c>
       <c r="D28" t="n">
-        <v>535.530321514486</v>
+        <v>535.5303215144861</v>
       </c>
       <c r="E28" t="n">
-        <v>435.0668608801662</v>
+        <v>435.0668608801663</v>
       </c>
       <c r="F28" t="n">
-        <v>335.6265463303291</v>
+        <v>335.6265463303292</v>
       </c>
       <c r="G28" t="n">
-        <v>215.3733426531213</v>
+        <v>215.3733426531214</v>
       </c>
       <c r="H28" t="n">
-        <v>116.6057888190524</v>
+        <v>116.6057888190525</v>
       </c>
       <c r="I28" t="n">
-        <v>66.72974458547114</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="J28" t="n">
-        <v>158.3577622848131</v>
+        <v>158.3577622848134</v>
       </c>
       <c r="K28" t="n">
-        <v>408.8503304860961</v>
+        <v>408.8503304860964</v>
       </c>
       <c r="L28" t="n">
-        <v>771.915514186999</v>
+        <v>771.9155141869994</v>
       </c>
       <c r="M28" t="n">
         <v>1162.577945038955</v>
@@ -6409,25 +6409,25 @@
         <v>2257.174433966635</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.938182741534</v>
+        <v>2112.938182741535</v>
       </c>
       <c r="T28" t="n">
         <v>1938.621200259134</v>
       </c>
       <c r="U28" t="n">
-        <v>1696.96796633285</v>
+        <v>1696.967966332851</v>
       </c>
       <c r="V28" t="n">
         <v>1489.733111075037</v>
       </c>
       <c r="W28" t="n">
-        <v>1247.765573986149</v>
+        <v>1247.76557398615</v>
       </c>
       <c r="X28" t="n">
         <v>1067.225656036205</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.8827098407485</v>
+        <v>893.8827098407487</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2018.690370378282</v>
+        <v>1312.2489271286</v>
       </c>
       <c r="C29" t="n">
-        <v>1697.177486385943</v>
+        <v>990.7360431362613</v>
       </c>
       <c r="D29" t="n">
-        <v>1386.361420727266</v>
+        <v>679.9199774775835</v>
       </c>
       <c r="E29" t="n">
-        <v>1048.022801077095</v>
+        <v>679.9199774775835</v>
       </c>
       <c r="F29" t="n">
-        <v>684.486529235561</v>
+        <v>316.3837056360493</v>
       </c>
       <c r="G29" t="n">
-        <v>316.8637120286306</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="H29" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="I29" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="J29" t="n">
         <v>255.6088755444966</v>
@@ -6473,40 +6473,40 @@
         <v>1573.994367154677</v>
       </c>
       <c r="N29" t="n">
-        <v>2131.436963724556</v>
+        <v>2131.436963724558</v>
       </c>
       <c r="O29" t="n">
-        <v>2634.409434603893</v>
+        <v>2634.409434603895</v>
       </c>
       <c r="P29" t="n">
-        <v>3029.183800961071</v>
+        <v>3029.183800961073</v>
       </c>
       <c r="Q29" t="n">
-        <v>3277.470162716754</v>
+        <v>3277.470162716755</v>
       </c>
       <c r="R29" t="n">
-        <v>3336.487229273556</v>
+        <v>3336.487229273558</v>
       </c>
       <c r="S29" t="n">
-        <v>3336.487229273556</v>
+        <v>3273.646193748726</v>
       </c>
       <c r="T29" t="n">
-        <v>3336.487229273556</v>
+        <v>3115.118079081021</v>
       </c>
       <c r="U29" t="n">
-        <v>3336.487229273556</v>
+        <v>2909.037235302931</v>
       </c>
       <c r="V29" t="n">
-        <v>3331.865424157116</v>
+        <v>2625.423980907434</v>
       </c>
       <c r="W29" t="n">
-        <v>3026.546401835075</v>
+        <v>2320.104958585393</v>
       </c>
       <c r="X29" t="n">
-        <v>2700.530276522069</v>
+        <v>1994.088833272387</v>
       </c>
       <c r="Y29" t="n">
-        <v>2357.84057749433</v>
+        <v>1651.399134244648</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C30" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D30" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E30" t="n">
         <v>459.1365886865626</v>
@@ -6531,22 +6531,22 @@
         <v>312.6020307134476</v>
       </c>
       <c r="G30" t="n">
-        <v>176.2389305460656</v>
+        <v>176.2389305460657</v>
       </c>
       <c r="H30" t="n">
-        <v>85.73703618393316</v>
+        <v>85.73703618393318</v>
       </c>
       <c r="I30" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="J30" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760885</v>
       </c>
       <c r="K30" t="n">
         <v>398.6712130564356</v>
       </c>
       <c r="L30" t="n">
-        <v>765.3693733691009</v>
+        <v>765.369373369101</v>
       </c>
       <c r="M30" t="n">
         <v>1212.645698591417</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.683877958582</v>
+        <v>759.6838779585821</v>
       </c>
       <c r="C31" t="n">
-        <v>638.1973279787484</v>
+        <v>638.1973279787485</v>
       </c>
       <c r="D31" t="n">
-        <v>535.530321514486</v>
+        <v>535.5303215144861</v>
       </c>
       <c r="E31" t="n">
         <v>435.0668608801662</v>
       </c>
       <c r="F31" t="n">
-        <v>335.6265463303291</v>
+        <v>335.6265463303292</v>
       </c>
       <c r="G31" t="n">
         <v>215.3733426531214</v>
@@ -6616,16 +6616,16 @@
         <v>116.6057888190525</v>
       </c>
       <c r="I31" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="J31" t="n">
-        <v>158.3577622848133</v>
+        <v>158.3577622848132</v>
       </c>
       <c r="K31" t="n">
-        <v>408.8503304860963</v>
+        <v>408.8503304860961</v>
       </c>
       <c r="L31" t="n">
-        <v>771.9155141869992</v>
+        <v>771.915514186999</v>
       </c>
       <c r="M31" t="n">
         <v>1162.577945038955</v>
@@ -6649,7 +6649,7 @@
         <v>2112.938182741534</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.621200259133</v>
+        <v>1938.621200259134</v>
       </c>
       <c r="U31" t="n">
         <v>1696.96796633285</v>
@@ -6658,7 +6658,7 @@
         <v>1489.733111075037</v>
       </c>
       <c r="W31" t="n">
-        <v>1247.765573986149</v>
+        <v>1247.76557398615</v>
       </c>
       <c r="X31" t="n">
         <v>1067.225656036205</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1715.929751842703</v>
+        <v>1715.929751842704</v>
       </c>
       <c r="C32" t="n">
         <v>1444.876970939628</v>
@@ -6683,19 +6683,19 @@
         <v>1184.521008370214</v>
       </c>
       <c r="E32" t="n">
-        <v>896.6424918093056</v>
+        <v>896.642491809306</v>
       </c>
       <c r="F32" t="n">
-        <v>583.5663230570344</v>
+        <v>583.566323057035</v>
       </c>
       <c r="G32" t="n">
         <v>266.4036089393676</v>
       </c>
       <c r="H32" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="I32" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="J32" t="n">
         <v>255.6088755444966</v>
@@ -6713,34 +6713,34 @@
         <v>2120.773184213459</v>
       </c>
       <c r="O32" t="n">
-        <v>2634.409434603893</v>
+        <v>2623.745655092796</v>
       </c>
       <c r="P32" t="n">
-        <v>3029.183800961071</v>
+        <v>3018.520021449974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3277.470162716754</v>
+        <v>3266.806383205656</v>
       </c>
       <c r="R32" t="n">
-        <v>3336.487229273556</v>
+        <v>3336.487229273558</v>
       </c>
       <c r="S32" t="n">
-        <v>3324.106296837987</v>
+        <v>3324.106296837989</v>
       </c>
       <c r="T32" t="n">
-        <v>3216.038285259546</v>
+        <v>3216.038285259548</v>
       </c>
       <c r="U32" t="n">
-        <v>3060.417544570719</v>
+        <v>3060.417544570721</v>
       </c>
       <c r="V32" t="n">
-        <v>2827.264393264485</v>
+        <v>2827.264393264486</v>
       </c>
       <c r="W32" t="n">
-        <v>2572.405474031707</v>
+        <v>2572.405474031708</v>
       </c>
       <c r="X32" t="n">
-        <v>2296.849451807964</v>
+        <v>2296.849451807965</v>
       </c>
       <c r="Y32" t="n">
         <v>2004.619855869489</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343963</v>
       </c>
       <c r="C33" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532693</v>
       </c>
       <c r="D33" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920181</v>
       </c>
       <c r="E33" t="n">
         <v>459.1365886865626</v>
@@ -6768,22 +6768,22 @@
         <v>312.6020307134476</v>
       </c>
       <c r="G33" t="n">
-        <v>176.2389305460656</v>
+        <v>176.2389305460657</v>
       </c>
       <c r="H33" t="n">
-        <v>85.73703618393316</v>
+        <v>85.73703618393318</v>
       </c>
       <c r="I33" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="J33" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760885</v>
       </c>
       <c r="K33" t="n">
         <v>398.6712130564356</v>
       </c>
       <c r="L33" t="n">
-        <v>765.3693733691009</v>
+        <v>765.369373369101</v>
       </c>
       <c r="M33" t="n">
         <v>1212.645698591417</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>833.7024449478326</v>
+        <v>407.0472151894228</v>
       </c>
       <c r="C34" t="n">
-        <v>762.6759980572621</v>
+        <v>336.0207682988522</v>
       </c>
       <c r="D34" t="n">
-        <v>675.4528090731978</v>
+        <v>283.8138649238527</v>
       </c>
       <c r="E34" t="n">
-        <v>527.5397154908047</v>
+        <v>233.8105073787959</v>
       </c>
       <c r="F34" t="n">
-        <v>380.6497679928943</v>
+        <v>184.8302959182219</v>
       </c>
       <c r="G34" t="n">
-        <v>212.9469313676133</v>
+        <v>115.0371953302771</v>
       </c>
       <c r="H34" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="I34" t="n">
-        <v>66.72974458547112</v>
+        <v>66.72974458547115</v>
       </c>
       <c r="J34" t="n">
         <v>111.8523770324067</v>
@@ -6886,22 +6886,22 @@
         <v>1833.736028105943</v>
       </c>
       <c r="T34" t="n">
-        <v>1709.879148712806</v>
+        <v>1611.969412675469</v>
       </c>
       <c r="U34" t="n">
-        <v>1518.686017875785</v>
+        <v>1322.866545801113</v>
       </c>
       <c r="V34" t="n">
-        <v>1361.911265707235</v>
+        <v>1068.182057595226</v>
       </c>
       <c r="W34" t="n">
-        <v>1170.403831707611</v>
+        <v>778.7648875582652</v>
       </c>
       <c r="X34" t="n">
-        <v>1040.32401684693</v>
+        <v>613.66878708852</v>
       </c>
       <c r="Y34" t="n">
-        <v>917.441173740736</v>
+        <v>490.7859439823263</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464981</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307341</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>543.564101365071</v>
+        <v>599.6022649647795</v>
       </c>
       <c r="C37" t="n">
-        <v>374.6279184371641</v>
+        <v>430.6660820368725</v>
       </c>
       <c r="D37" t="n">
-        <v>323.1827135986717</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E37" t="n">
-        <v>231.307783615987</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F37" t="n">
         <v>183.08927069192</v>
@@ -7087,10 +7087,10 @@
         <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1791.646827515028</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084554</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1379.448779784041</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663015</v>
+        <v>934.0185561150365</v>
       </c>
       <c r="X37" t="n">
-        <v>847.3337107649975</v>
+        <v>804.7004397908626</v>
       </c>
       <c r="Y37" t="n">
-        <v>626.5411316214673</v>
+        <v>682.5792952211758</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,31 +7157,31 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464967</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307324</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7193,28 +7193,28 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.2355359389144</v>
+        <v>444.8926667912274</v>
       </c>
       <c r="C40" t="n">
-        <v>571.9707875848509</v>
+        <v>374.6279184371638</v>
       </c>
       <c r="D40" t="n">
-        <v>520.5255827463586</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E40" t="n">
-        <v>471.2839237378089</v>
+        <v>231.307783615987</v>
       </c>
       <c r="F40" t="n">
-        <v>423.065410813742</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>255.362574188461</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7360,22 +7360,22 @@
         <v>1834.280098489163</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>877.9803925153278</v>
       </c>
       <c r="X40" t="n">
-        <v>847.3337107649975</v>
+        <v>748.6622761911539</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953107</v>
+        <v>527.8696970476237</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307326</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,16 +7409,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7436,19 +7436,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>740.906970512758</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>571.9707875848511</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D43" t="n">
-        <v>421.8541481725154</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E43" t="n">
-        <v>273.9410545901222</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.661277114358</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1692.975392941184</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1471.20877751071</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>835.3471215411929</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.676579912684</v>
+        <v>706.0290052170189</v>
       </c>
       <c r="Y43" t="n">
-        <v>823.8840007691543</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218343</v>
@@ -7646,10 +7646,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
@@ -7670,28 +7670,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>698.2736995386225</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C46" t="n">
-        <v>628.008951184559</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D46" t="n">
-        <v>576.5637463460668</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E46" t="n">
-        <v>527.322087337517</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396067</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218343</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.646827515027</v>
+        <v>1692.975392941184</v>
       </c>
       <c r="T46" t="n">
-        <v>1668.551646658397</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U46" t="n">
-        <v>1478.120214357884</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V46" t="n">
-        <v>1223.435726151997</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.68999068888</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X46" t="n">
-        <v>903.3718743647056</v>
+        <v>706.0290052170189</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.2507297950189</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>213.8677805682747</v>
+        <v>213.8677805682733</v>
       </c>
       <c r="L8" t="n">
-        <v>228.0473863505263</v>
+        <v>228.0473863505245</v>
       </c>
       <c r="M8" t="n">
-        <v>221.7573265905354</v>
+        <v>221.7573265905335</v>
       </c>
       <c r="N8" t="n">
-        <v>220.6851794710458</v>
+        <v>220.6851794710438</v>
       </c>
       <c r="O8" t="n">
-        <v>221.85671793559</v>
+        <v>221.8567179355882</v>
       </c>
       <c r="P8" t="n">
-        <v>224.1990717385767</v>
+        <v>224.1990717385751</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>124.3650025758403</v>
+        <v>124.3650025758397</v>
       </c>
       <c r="K9" t="n">
-        <v>133.6153305693659</v>
+        <v>133.6153305693649</v>
       </c>
       <c r="L9" t="n">
-        <v>132.8718554951909</v>
+        <v>132.8718554951897</v>
       </c>
       <c r="M9" t="n">
-        <v>135.5027961091479</v>
+        <v>135.5027961091464</v>
       </c>
       <c r="N9" t="n">
-        <v>124.5349651374201</v>
+        <v>124.5349651374186</v>
       </c>
       <c r="O9" t="n">
-        <v>136.3694007948896</v>
+        <v>136.3694007948882</v>
       </c>
       <c r="P9" t="n">
-        <v>128.9768164173292</v>
+        <v>128.976816417328</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.641016853794</v>
+        <v>136.6410168537933</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>131.6226139202311</v>
+        <v>131.6226139202304</v>
       </c>
       <c r="M10" t="n">
-        <v>135.4863965628156</v>
+        <v>135.4863965628148</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3279380250453</v>
+        <v>124.3279380250445</v>
       </c>
       <c r="O10" t="n">
-        <v>135.3552454599791</v>
+        <v>135.3552454599784</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>10.77149445565522</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>10.77149445565431</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>10.77149445565524</v>
       </c>
       <c r="R26" t="n">
-        <v>10.77149445565482</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>10.77149445565385</v>
+        <v>10.77149445565522</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>10.77149445565385</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>10.77149445565527</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25382330877945</v>
+        <v>15.25382330877944</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.23161743843642</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>83.92851037866677</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>42.32535640796425</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.981554650709938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>52.28225787287494</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>52.28225787287882</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>52.28225787287656</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>52.28225787287932</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>41.7251161568893</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24254,13 +24254,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.2374885509907</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>26.48762760589879</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,16 +24491,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>152.3672464557505</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>115.98569600357</v>
       </c>
     </row>
     <row r="27">
@@ -24686,16 +24686,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>116.7891675947886</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,16 +24728,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>276.2015347862666</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>831993.050053469</v>
+        <v>831993.0500534683</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>728188.8566006735</v>
+        <v>728188.8566006731</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>728188.8566006733</v>
+        <v>728188.8566006731</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>683590.2818316706</v>
+        <v>683590.2818316707</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>716866.7963774083</v>
       </c>
       <c r="C2" t="n">
-        <v>716866.7963774083</v>
+        <v>716866.7963774086</v>
       </c>
       <c r="D2" t="n">
-        <v>716870.2032518814</v>
+        <v>716870.2032518816</v>
       </c>
       <c r="E2" t="n">
         <v>668964.6336536126</v>
       </c>
       <c r="F2" t="n">
-        <v>668964.6336536121</v>
+        <v>668964.633653612</v>
       </c>
       <c r="G2" t="n">
-        <v>714770.0893704025</v>
+        <v>714770.0893704019</v>
       </c>
       <c r="H2" t="n">
         <v>714770.0893704019</v>
       </c>
       <c r="I2" t="n">
-        <v>715505.3942909205</v>
+        <v>715505.3942909212</v>
       </c>
       <c r="J2" t="n">
         <v>669699.9385741316</v>
       </c>
       <c r="K2" t="n">
-        <v>669699.9385741316</v>
+        <v>669699.9385741315</v>
       </c>
       <c r="L2" t="n">
-        <v>718411.5486312488</v>
+        <v>718411.5486312484</v>
       </c>
       <c r="M2" t="n">
-        <v>718411.5486312486</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="O2" t="n">
         <v>718411.5486312483</v>
       </c>
       <c r="P2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
     </row>
     <row r="3">
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10420.33926655341</v>
+        <v>10420.33926655577</v>
       </c>
       <c r="E3" t="n">
-        <v>1151572.830875722</v>
+        <v>1151572.830875719</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487392</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>723.3987018804296</v>
+        <v>723.398701880773</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>77544.51094157044</v>
+        <v>77544.51094157033</v>
       </c>
       <c r="M3" t="n">
         <v>207113.9109540877</v>
@@ -26421,40 +26421,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>459028.1883762669</v>
+        <v>459028.1883762659</v>
       </c>
       <c r="E4" t="n">
-        <v>61265.27723866005</v>
+        <v>61265.27723866009</v>
       </c>
       <c r="F4" t="n">
-        <v>61265.27723866007</v>
+        <v>61265.27723866009</v>
       </c>
       <c r="G4" t="n">
-        <v>91028.44393036225</v>
+        <v>91028.44393036209</v>
       </c>
       <c r="H4" t="n">
-        <v>91028.44393036213</v>
+        <v>91028.44393036215</v>
       </c>
       <c r="I4" t="n">
-        <v>91501.30607406862</v>
+        <v>91501.30607406868</v>
       </c>
       <c r="J4" t="n">
         <v>61738.13938236664</v>
       </c>
       <c r="K4" t="n">
-        <v>61738.1393823666</v>
+        <v>61738.13938236666</v>
       </c>
       <c r="L4" t="n">
         <v>93397.00574718686</v>
       </c>
       <c r="M4" t="n">
+        <v>93403.78684820628</v>
+      </c>
+      <c r="N4" t="n">
         <v>93403.78684820631</v>
       </c>
-      <c r="N4" t="n">
-        <v>93403.78684820636</v>
-      </c>
       <c r="O4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="P4" t="n">
         <v>93403.78684820633</v>
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33892.84951251482</v>
+        <v>33892.84951251488</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>82204.64608217023</v>
+        <v>82204.64608217021</v>
       </c>
       <c r="H5" t="n">
-        <v>82204.64608217022</v>
+        <v>82204.64608217019</v>
       </c>
       <c r="I5" t="n">
-        <v>82370.04347866889</v>
+        <v>82370.0434786689</v>
       </c>
       <c r="J5" t="n">
         <v>78420.89071828043</v>
       </c>
       <c r="K5" t="n">
-        <v>78420.89071828041</v>
+        <v>78420.89071828043</v>
       </c>
       <c r="L5" t="n">
         <v>82620.59982082556</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624987</v>
+      </c>
+      <c r="N5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
-      <c r="N5" t="n">
-        <v>82518.59730624987</v>
-      </c>
-      <c r="O5" t="n">
-        <v>82518.59730624987</v>
-      </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>220088.4652752985</v>
+        <v>220084.0516974304</v>
       </c>
       <c r="C6" t="n">
-        <v>220088.4652752985</v>
+        <v>220084.0516974307</v>
       </c>
       <c r="D6" t="n">
-        <v>213528.8260965463</v>
+        <v>213524.422252604</v>
       </c>
       <c r="E6" t="n">
-        <v>-622128.9677825512</v>
+        <v>-622270.2446824849</v>
       </c>
       <c r="F6" t="n">
-        <v>529443.8630931703</v>
+        <v>529302.586193234</v>
       </c>
       <c r="G6" t="n">
-        <v>503956.8900629961</v>
+        <v>503946.4858936789</v>
       </c>
       <c r="H6" t="n">
-        <v>541536.9993578696</v>
+        <v>541526.595188553</v>
       </c>
       <c r="I6" t="n">
-        <v>540910.6460363024</v>
+        <v>540902.3427381875</v>
       </c>
       <c r="J6" t="n">
-        <v>529540.9084734845</v>
+        <v>529401.7324447498</v>
       </c>
       <c r="K6" t="n">
-        <v>529540.9084734846</v>
+        <v>529401.7324447497</v>
       </c>
       <c r="L6" t="n">
-        <v>464849.432121666</v>
+        <v>464849.4321216657</v>
       </c>
       <c r="M6" t="n">
-        <v>335375.2535227048</v>
+        <v>335375.253522704</v>
       </c>
       <c r="N6" t="n">
-        <v>542489.1644767921</v>
+        <v>542489.1644767919</v>
       </c>
       <c r="O6" t="n">
         <v>542489.1644767921</v>
       </c>
       <c r="P6" t="n">
-        <v>542489.164476792</v>
+        <v>542489.1644767919</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H2" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I2" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="M2" t="n">
+        <v>97.68472022810489</v>
+      </c>
+      <c r="N2" t="n">
         <v>97.68472022810491</v>
       </c>
-      <c r="N2" t="n">
-        <v>97.68472022810498</v>
-      </c>
       <c r="O2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1674088309549</v>
+        <v>12.16740883095766</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="I4" t="n">
+        <v>834.1218073183894</v>
+      </c>
+      <c r="J4" t="n">
+        <v>834.1218073183894</v>
+      </c>
+      <c r="K4" t="n">
+        <v>834.1218073183894</v>
+      </c>
+      <c r="L4" t="n">
+        <v>834.1218073183894</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022931</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="I4" t="n">
-        <v>834.1218073183893</v>
-      </c>
-      <c r="J4" t="n">
-        <v>834.1218073183893</v>
-      </c>
-      <c r="K4" t="n">
-        <v>834.1218073183891</v>
-      </c>
-      <c r="L4" t="n">
-        <v>834.1218073183891</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="N4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="O4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="P4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.401455402293</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696304</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7540815511419083</v>
+        <v>0.7540815511419794</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1674088309549</v>
+        <v>12.16740883095766</v>
       </c>
       <c r="E3" t="n">
-        <v>1077.609291762343</v>
+        <v>1077.60929176234</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.289344497911612e-14</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.720351916096547</v>
+        <v>2.720351916097002</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>828.6811034861968</v>
+        <v>828.6811034861963</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.9738594999279</v>
+        <v>338.9738594999278</v>
       </c>
       <c r="I8" t="n">
-        <v>208.5901246298817</v>
+        <v>208.5901246298813</v>
       </c>
       <c r="J8" t="n">
-        <v>7.797757232939116</v>
+        <v>7.797757232938174</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.708515212961766</v>
+        <v>4.708515212960568</v>
       </c>
       <c r="R8" t="n">
-        <v>146.7965109261649</v>
+        <v>146.7965109261642</v>
       </c>
       <c r="S8" t="n">
-        <v>207.9054371089172</v>
+        <v>207.9054371089169</v>
       </c>
       <c r="T8" t="n">
         <v>222.8817276258097</v>
@@ -27950,7 +27950,7 @@
         <v>111.9826835360647</v>
       </c>
       <c r="I9" t="n">
-        <v>88.49555587666983</v>
+        <v>88.49555587666963</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>98.53291113933183</v>
+        <v>98.53291113933146</v>
       </c>
       <c r="S9" t="n">
-        <v>171.1970486849785</v>
+        <v>171.1970486849783</v>
       </c>
       <c r="T9" t="n">
         <v>200.0592395559947</v>
@@ -28029,13 +28029,13 @@
         <v>162.0320950347072</v>
       </c>
       <c r="I10" t="n">
-        <v>154.7906423303272</v>
+        <v>154.790642330327</v>
       </c>
       <c r="J10" t="n">
-        <v>91.80793522358529</v>
+        <v>91.80793522358495</v>
       </c>
       <c r="K10" t="n">
-        <v>19.72031994293853</v>
+        <v>19.72031994293795</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,16 +28050,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06774881564710356</v>
+        <v>0.06774881564650181</v>
       </c>
       <c r="Q10" t="n">
-        <v>84.32476451822019</v>
+        <v>84.32476451821978</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3068339332694</v>
+        <v>176.3068339332692</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6342222545306</v>
+        <v>223.6342222545305</v>
       </c>
       <c r="T10" t="n">
         <v>227.8518405405676</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28345,7 +28345,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.9751366185928</v>
       </c>
       <c r="K16" t="n">
         <v>46.97513661859256</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C19" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E19" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F19" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G19" t="n">
-        <v>91.48995205464284</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H19" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I19" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>91.48995205464304</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I22" t="n">
-        <v>91.48995205464209</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>93.95027323718517</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V22" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>93.95027323718517</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.95027323718517</v>
+        <v>91.48995205464396</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="C23" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D23" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E23" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="F23" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G23" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H23" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T23" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="U23" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V23" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W23" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="X23" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.9502732371851</v>
+        <v>86.47183148750473</v>
       </c>
       <c r="C25" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="D25" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="G25" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="H25" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="I25" t="n">
-        <v>86.47183148750447</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="T25" t="n">
-        <v>93.9502732371851</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="V25" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="W25" t="n">
-        <v>93.9502732371851</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>93.9502732371851</v>
+        <v>93.95027323718512</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>93.95027323718512</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29712,7 +29712,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
         <v>46.97513661859256</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="C32" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="D32" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="E32" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="F32" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="G32" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="H32" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="T32" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="U32" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="V32" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="W32" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="X32" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
     </row>
     <row r="33">
@@ -29904,25 +29904,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="C34" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="D34" t="n">
-        <v>62.26451592398878</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -29955,25 +29955,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
       <c r="T34" t="n">
-        <v>96.930638676963</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>96.930638676963</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>96.930638676963</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>96.930638676963</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>96.930638676963</v>
+        <v>62.26451592398948</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.930638676963</v>
+        <v>96.93063867696291</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>55.47778196371127</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810491</v>
+        <v>55.47778196371155</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810498</v>
+        <v>55.47778196371152</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="H40" t="n">
-        <v>54.14548214544412</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F43" t="n">
-        <v>55.47778196371091</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>46.72521440565365</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.47778196371112</v>
+        <v>46.72521440565353</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04891420635559755</v>
+        <v>0.04891420635560865</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5009426158392635</v>
+        <v>0.5009426158393772</v>
       </c>
       <c r="I8" t="n">
-        <v>1.885764940524176</v>
+        <v>1.885764940524604</v>
       </c>
       <c r="J8" t="n">
-        <v>4.151532121673402</v>
+        <v>4.151532121674343</v>
       </c>
       <c r="K8" t="n">
-        <v>6.222070476705847</v>
+        <v>6.222070476707258</v>
       </c>
       <c r="L8" t="n">
-        <v>7.719028619460967</v>
+        <v>7.719028619462718</v>
       </c>
       <c r="M8" t="n">
-        <v>8.588906636737324</v>
+        <v>8.588906636739273</v>
       </c>
       <c r="N8" t="n">
-        <v>8.727884125545167</v>
+        <v>8.727884125547147</v>
       </c>
       <c r="O8" t="n">
-        <v>8.241493486096694</v>
+        <v>8.241493486098562</v>
       </c>
       <c r="P8" t="n">
-        <v>7.033924016692877</v>
+        <v>7.033924016694473</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.282184001583039</v>
+        <v>5.282184001584237</v>
       </c>
       <c r="R8" t="n">
-        <v>3.072607014984807</v>
+        <v>3.072607014985504</v>
       </c>
       <c r="S8" t="n">
-        <v>1.11463247732818</v>
+        <v>1.114632477328433</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2141219383216284</v>
+        <v>0.2141219383216769</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003913136508447803</v>
+        <v>0.003913136508448691</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02617140767412941</v>
+        <v>0.02617140767413535</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2527607004317236</v>
+        <v>0.2527607004317809</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9010769747452451</v>
+        <v>0.9010769747454495</v>
       </c>
       <c r="J9" t="n">
-        <v>2.472624090826411</v>
+        <v>2.472624090826972</v>
       </c>
       <c r="K9" t="n">
-        <v>4.226108404993081</v>
+        <v>4.22610840499404</v>
       </c>
       <c r="L9" t="n">
-        <v>5.68252428468323</v>
+        <v>5.682524284684519</v>
       </c>
       <c r="M9" t="n">
-        <v>6.631237812870419</v>
+        <v>6.631237812871924</v>
       </c>
       <c r="N9" t="n">
-        <v>6.806746945913157</v>
+        <v>6.806746945914701</v>
       </c>
       <c r="O9" t="n">
-        <v>6.226843649554816</v>
+        <v>6.226843649556228</v>
       </c>
       <c r="P9" t="n">
-        <v>4.99759099700108</v>
+        <v>4.997590997002214</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.340757232227467</v>
+        <v>3.340757232228224</v>
       </c>
       <c r="R9" t="n">
-        <v>1.624923013311298</v>
+        <v>1.624923013311667</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4861224188593771</v>
+        <v>0.4861224188594873</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1054891388268637</v>
+        <v>0.1054891388268876</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001721803136455883</v>
+        <v>0.001721803136456273</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02194122903942686</v>
+        <v>0.02194122903943184</v>
       </c>
       <c r="H10" t="n">
-        <v>0.195077472732359</v>
+        <v>0.1950774727324033</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6598325969311282</v>
+        <v>0.6598325969312778</v>
       </c>
       <c r="J10" t="n">
-        <v>1.551244893087479</v>
+        <v>1.551244893087831</v>
       </c>
       <c r="K10" t="n">
-        <v>2.549171882944321</v>
+        <v>2.549171882944899</v>
       </c>
       <c r="L10" t="n">
-        <v>3.262062361007155</v>
+        <v>3.262062361007895</v>
       </c>
       <c r="M10" t="n">
-        <v>3.439387384789431</v>
+        <v>3.439387384790211</v>
       </c>
       <c r="N10" t="n">
-        <v>3.357606440187933</v>
+        <v>3.357606440188695</v>
       </c>
       <c r="O10" t="n">
-        <v>3.101292991863719</v>
+        <v>3.101292991864422</v>
       </c>
       <c r="P10" t="n">
-        <v>2.653691919459408</v>
+        <v>2.65369191946001</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83727873347419</v>
+        <v>1.837278733474607</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9865574439000477</v>
+        <v>0.9865574439002716</v>
       </c>
       <c r="S10" t="n">
-        <v>0.382375782441648</v>
+        <v>0.3823757824417348</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09374888771391476</v>
+        <v>0.09374888771393604</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001196794311241467</v>
+        <v>0.001196794311241738</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32707,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34372,7 +34372,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623202</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35574,16 +35574,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.553553231659</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882214</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193716</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882193</v>
+        <v>518.8244953438743</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>70.38469299787914</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597712</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>261.5657992593747</v>
       </c>
       <c r="R26" t="n">
-        <v>70.3846929978796</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36841,7 +36841,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>563.0733298685653</v>
+        <v>563.0733298685667</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -37008,7 +37008,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>518.824495343873</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37090,7 +37090,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>70.38469299788005</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -38020,7 +38020,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.590114392333</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
